--- a/pred_ohlcv/54_21/2020-01-24 ETZ ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-24 ETZ ohlcv.xlsx
@@ -522,7 +522,7 @@
         <v>-1935867.561</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-1922688.223</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-1804643.5246</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>-2672206.5503</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>-2655172.885</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-2689173.0972</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-2655276.6885</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>-2849354.5155</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>-3020124.2305</v>
       </c>
       <c r="H62">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>-3101801.3942</v>
       </c>
       <c r="H69">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>-3158587.5148</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>-3174587.5148</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>-3260038.2958</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>-4251401.856</v>
       </c>
       <c r="H139">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>-4295799.2929</v>
       </c>
       <c r="H140">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>-4356500.6362</v>
       </c>
       <c r="H141">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>-4356455.6362</v>
       </c>
       <c r="H142">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>-4356409.6362</v>
       </c>
       <c r="H144">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-24 ETZ ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-24 ETZ ohlcv.xlsx
@@ -522,7 +522,7 @@
         <v>-1935867.561</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-1804643.5246</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>-2672206.5503</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>-2655172.885</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-2689173.0972</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-2655276.6885</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-2928009.5889</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>-2849354.5155</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>-2959255.0922</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>-3020124.2305</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>-3046315.2305</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>-3101758.3942</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>-3158587.5148</v>
       </c>
       <c r="H73">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>-3174587.5148</v>
       </c>
       <c r="H74">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>-3260038.2958</v>
       </c>
       <c r="H75">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>-3183979.0507</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>-3199010.0507</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>-4356500.6362</v>
       </c>
       <c r="H141">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>-4356455.6362</v>
       </c>
       <c r="H142">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>-4356409.6362</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="145" spans="1:8">
